--- a/wwwroot/upload/excel/Book1.xlsx
+++ b/wwwroot/upload/excel/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doanh\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\asp\WebEnglish\wwwroot\upload\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423FED9E-B87B-4877-80BD-402B6D6C6EC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3EBB5-7323-4CFF-B093-9C3180A99D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{83692D56-4BB3-47EE-9584-12C1A3F1C459}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83692D56-4BB3-47EE-9584-12C1A3F1C459}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,80 +69,86 @@
     <t>00:00:20</t>
   </si>
   <si>
-    <t>xin chào 1</t>
-  </si>
-  <si>
-    <t>xin chào 2</t>
-  </si>
-  <si>
-    <t>xin chào 3</t>
-  </si>
-  <si>
-    <t>xin chào 4</t>
-  </si>
-  <si>
-    <t>xin chào 5</t>
-  </si>
-  <si>
-    <t>xin chào 6</t>
-  </si>
-  <si>
-    <t>xin chào 7</t>
-  </si>
-  <si>
-    <t>xin chào 8</t>
-  </si>
-  <si>
-    <t>xin chào 9</t>
-  </si>
-  <si>
-    <t>xin chào 10</t>
-  </si>
-  <si>
-    <t>xin chào 11</t>
-  </si>
-  <si>
-    <t>hello 1</t>
-  </si>
-  <si>
-    <t>hello 2</t>
-  </si>
-  <si>
-    <t>hello 3</t>
-  </si>
-  <si>
-    <t>hello 4</t>
-  </si>
-  <si>
-    <t>hello 5</t>
-  </si>
-  <si>
-    <t>hello 6</t>
-  </si>
-  <si>
-    <t>hello 7</t>
-  </si>
-  <si>
-    <t>hello 8</t>
-  </si>
-  <si>
-    <t>hello 9</t>
-  </si>
-  <si>
-    <t>hello 10</t>
-  </si>
-  <si>
-    <t>hello 11</t>
+    <t>this is sub from excel 1</t>
+  </si>
+  <si>
+    <t>this is sub from excel 2</t>
+  </si>
+  <si>
+    <t>this is sub from excel 3</t>
+  </si>
+  <si>
+    <t>this is sub from excel 4</t>
+  </si>
+  <si>
+    <t>this is sub from excel 5</t>
+  </si>
+  <si>
+    <t>this is sub from excel 6</t>
+  </si>
+  <si>
+    <t>this is sub from excel 7</t>
+  </si>
+  <si>
+    <t>this is sub from excel 8</t>
+  </si>
+  <si>
+    <t>this is sub from excel 9</t>
+  </si>
+  <si>
+    <t>this is sub from excel 10</t>
+  </si>
+  <si>
+    <t>this is sub from excel 11</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 1</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 2</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 3</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 4</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 5</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 6</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 7</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 8</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 9</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 10</t>
+  </si>
+  <si>
+    <t>Đây là sub Việt Nam 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -488,14 +494,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +520,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +531,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +553,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +564,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +597,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +608,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +619,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,13 +630,14 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
